--- a/data/ChatGPT_.xlsx
+++ b/data/ChatGPT_.xlsx
@@ -30,217 +30,217 @@
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Starttidspunkt</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Færdiggørelsestidspunkt</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Mail</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Navn</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Samlet antal point</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback på quizzen</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Senest ændret tidspunkt</x:t>
+    <x:t xml:space="preserve">Start time</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Completion time</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Total points</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quiz feedback</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Last modified time</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What type of species is the Axolotl classified as?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – What type of species is the Axolotl classified as?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – What type of species is the Axolotl classified as?</x:t>
+    <x:t xml:space="preserve">Points - What type of species is the Axolotl classified as?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - What type of species is the Axolotl classified as?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What is the unique trait of Axolotls that distinguishes them from most other amphibians?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – What is the unique trait of Axolotls that distinguishes them from most other amphibians?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – What is the unique trait of Axolotls that distinguishes them from most other amphibians?</x:t>
+    <x:t xml:space="preserve">Points - What is the unique trait of Axolotls that distinguishes them from most other amphibians?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - What is the unique trait of Axolotls that distinguishes them from most other amphibians?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What biological process allows Axolotls to regenerate entire body parts?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – What biological process allows Axolotls to regenerate entire body parts?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – What biological process allows Axolotls to regenerate entire body parts?</x:t>
+    <x:t xml:space="preserve">Points - What biological process allows Axolotls to regenerate entire body parts?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - What biological process allows Axolotls to regenerate entire body parts?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What is the typical lifespan of an Axolotl in captivity?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – What is the typical lifespan of an Axolotl in captivity?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – What is the typical lifespan of an Axolotl in captivity?</x:t>
+    <x:t xml:space="preserve">Points - What is the typical lifespan of an Axolotl in captivity?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - What is the typical lifespan of an Axolotl in captivity?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Axolotls are native to a particular kind of aquatic environment. Which one?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – Axolotls are native to a particular kind of aquatic environment. Which one?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – Axolotls are native to a particular kind of aquatic environment. Which one?</x:t>
+    <x:t xml:space="preserve">Points - Axolotls are native to a particular kind of aquatic environment. Which one?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - Axolotls are native to a particular kind of aquatic environment. Which one?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">At what age are Axolotls typically considered fully grown?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – At what age are Axolotls typically considered fully grown?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – At what age are Axolotls typically considered fully grown?</x:t>
+    <x:t xml:space="preserve">Points - At what age are Axolotls typically considered fully grown?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - At what age are Axolotls typically considered fully grown?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Through what feature do Axolotls breathe?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – Through what feature do Axolotls breathe?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – Through what feature do Axolotls breathe?</x:t>
+    <x:t xml:space="preserve">Points - Through what feature do Axolotls breathe?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - Through what feature do Axolotls breathe?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">In which lake were the Axolotls first found naturally?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – In which lake were the Axolotls first found naturally?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – In which lake were the Axolotls first found naturally?</x:t>
+    <x:t xml:space="preserve">Points - In which lake were the Axolotls first found naturally?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - In which lake were the Axolotls first found naturally?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What is the current conservation status of Axolotls?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – What is the current conservation status of Axolotls?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – What is the current conservation status of Axolotls?</x:t>
+    <x:t xml:space="preserve">Feedback - What is the current conservation status of Axolotls?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - What is the current conservation status of Axolotls?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Where did the name Axolotl come from?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – Where did the name Axolotl come from?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – Where did the name Axolotl come from?</x:t>
+    <x:t xml:space="preserve">Feedback - Where did the name Axolotl come from?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - Where did the name Axolotl come from?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What is the scientific name of the axolotl?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – What is the scientific name of the axolotl?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – What is the scientific name of the axolotl?</x:t>
+    <x:t xml:space="preserve">Feedback - What is the scientific name of the axolotl?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - What is the scientific name of the axolotl?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">In what year was the axolotl first described scientifically?
 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – In what year was the axolotl first described scientifically?
+    <x:t xml:space="preserve">Feedback - In what year was the axolotl first described scientifically?
 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – In what year was the axolotl first described scientifically?
+    <x:t xml:space="preserve">Points - In what year was the axolotl first described scientifically?
 </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What is a common threat to axolotl populations in their natural habitat?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – What is a common threat to axolotl populations in their natural habitat?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – What is a common threat to axolotl populations in their natural habitat?</x:t>
+    <x:t xml:space="preserve">Feedback - What is a common threat to axolotl populations in their natural habitat?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - What is a common threat to axolotl populations in their natural habitat?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What role do axolotls play in regenerative medicine and genetics?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – What role do axolotls play in regenerative medicine and genetics?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – What role do axolotls play in regenerative medicine and genetics?</x:t>
+    <x:t xml:space="preserve">Feedback - What role do axolotls play in regenerative medicine and genetics?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - What role do axolotls play in regenerative medicine and genetics?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What is the purpose of the "feathers" placed on the head?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – What is the purpose of the "feathers" placed on the head?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – What is the purpose of the "feathers" placed on the head?</x:t>
+    <x:t xml:space="preserve">Feedback - What is the purpose of the "feathers" placed on the head?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - What is the purpose of the "feathers" placed on the head?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Which of the following describes the diet of axolotls?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – Which of the following describes the diet of axolotls?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – Which of the following describes the diet of axolotls?</x:t>
+    <x:t xml:space="preserve">Feedback - Which of the following describes the diet of axolotls?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - Which of the following describes the diet of axolotls?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">How many axolotls are estimated to live in captivity?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – How many axolotls are estimated to live in captivity?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – How many axolotls are estimated to live in captivity?</x:t>
+    <x:t xml:space="preserve">Feedback - How many axolotls are estimated to live in captivity?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - How many axolotls are estimated to live in captivity?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">How many axolotls are estimated to live in the wild?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – How many axolotls are estimated to live in the wild?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – How many axolotls are estimated to live in the wild?</x:t>
+    <x:t xml:space="preserve">Feedback - How many axolotls are estimated to live in the wild?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - How many axolotls are estimated to live in the wild?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Axolotls are primarily active during which part of the day?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Feedback – Axolotls are primarily active during which part of the day?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Point – Axolotls are primarily active during which part of the day?</x:t>
+    <x:t xml:space="preserve">Feedback - Axolotls are primarily active during which part of the day?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Points - Axolotls are primarily active during which part of the day?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">How do axolotls primarily perceive their environment?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – How do axolotls primarily perceive their environment?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – How do axolotls primarily perceive their environment?</x:t>
+    <x:t xml:space="preserve">Points - How do axolotls primarily perceive their environment?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - How do axolotls primarily perceive their environment?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">What is the maximum size an adult axolotl can reach?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Point – What is the maximum size an adult axolotl can reach?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Feedback – What is the maximum size an adult axolotl can reach?</x:t>
+    <x:t xml:space="preserve">Points - What is the maximum size an adult axolotl can reach?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedback - What is the maximum size an adult axolotl can reach?</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">anonymous</x:t>
@@ -512,76 +512,76 @@
   <x:autoFilter ref="A1:BS17"/>
   <x:tableColumns count="71">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
-    <x:tableColumn id="2" uniqueName="2" name="Starttidspunkt" dataDxfId="3"/>
-    <x:tableColumn id="3" uniqueName="3" name="Færdiggørelsestidspunkt" dataDxfId="3"/>
-    <x:tableColumn id="4" uniqueName="4" name="Mail" dataDxfId="0"/>
-    <x:tableColumn id="5" uniqueName="5" name="Navn" dataDxfId="0"/>
-    <x:tableColumn id="6" uniqueName="6" name="Samlet antal point" dataDxfId="0"/>
-    <x:tableColumn id="7" uniqueName="7" name="Feedback på quizzen" dataDxfId="0"/>
-    <x:tableColumn id="8" uniqueName="8" name="Senest ændret tidspunkt" dataDxfId="3"/>
+    <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
+    <x:tableColumn id="3" uniqueName="3" name="Completion time" dataDxfId="3"/>
+    <x:tableColumn id="4" uniqueName="4" name="Email" dataDxfId="0"/>
+    <x:tableColumn id="5" uniqueName="5" name="Name" dataDxfId="0"/>
+    <x:tableColumn id="6" uniqueName="6" name="Total points" dataDxfId="0"/>
+    <x:tableColumn id="7" uniqueName="7" name="Quiz feedback" dataDxfId="0"/>
+    <x:tableColumn id="8" uniqueName="8" name="Last modified time" dataDxfId="3"/>
     <x:tableColumn id="9" uniqueName="9" name="What type of species is the Axolotl classified as?" dataDxfId="0"/>
-    <x:tableColumn id="10" uniqueName="10" name="Point – What type of species is the Axolotl classified as?" dataDxfId="0"/>
-    <x:tableColumn id="11" uniqueName="11" name="Feedback – What type of species is the Axolotl classified as?" dataDxfId="0"/>
+    <x:tableColumn id="10" uniqueName="10" name="Points - What type of species is the Axolotl classified as?" dataDxfId="0"/>
+    <x:tableColumn id="11" uniqueName="11" name="Feedback - What type of species is the Axolotl classified as?" dataDxfId="0"/>
     <x:tableColumn id="12" uniqueName="12" name="What is the unique trait of Axolotls that distinguishes them from most other amphibians?" dataDxfId="0"/>
-    <x:tableColumn id="13" uniqueName="13" name="Point – What is the unique trait of Axolotls that distinguishes them from most other amphibians?" dataDxfId="0"/>
-    <x:tableColumn id="14" uniqueName="14" name="Feedback – What is the unique trait of Axolotls that distinguishes them from most other amphibians?" dataDxfId="0"/>
+    <x:tableColumn id="13" uniqueName="13" name="Points - What is the unique trait of Axolotls that distinguishes them from most other amphibians?" dataDxfId="0"/>
+    <x:tableColumn id="14" uniqueName="14" name="Feedback - What is the unique trait of Axolotls that distinguishes them from most other amphibians?" dataDxfId="0"/>
     <x:tableColumn id="15" uniqueName="15" name="What biological process allows Axolotls to regenerate entire body parts?" dataDxfId="0"/>
-    <x:tableColumn id="16" uniqueName="16" name="Point – What biological process allows Axolotls to regenerate entire body parts?" dataDxfId="0"/>
-    <x:tableColumn id="17" uniqueName="17" name="Feedback – What biological process allows Axolotls to regenerate entire body parts?" dataDxfId="0"/>
+    <x:tableColumn id="16" uniqueName="16" name="Points - What biological process allows Axolotls to regenerate entire body parts?" dataDxfId="0"/>
+    <x:tableColumn id="17" uniqueName="17" name="Feedback - What biological process allows Axolotls to regenerate entire body parts?" dataDxfId="0"/>
     <x:tableColumn id="18" uniqueName="18" name="What is the typical lifespan of an Axolotl in captivity?" dataDxfId="0"/>
-    <x:tableColumn id="19" uniqueName="19" name="Point – What is the typical lifespan of an Axolotl in captivity?" dataDxfId="0"/>
-    <x:tableColumn id="20" uniqueName="20" name="Feedback – What is the typical lifespan of an Axolotl in captivity?" dataDxfId="0"/>
+    <x:tableColumn id="19" uniqueName="19" name="Points - What is the typical lifespan of an Axolotl in captivity?" dataDxfId="0"/>
+    <x:tableColumn id="20" uniqueName="20" name="Feedback - What is the typical lifespan of an Axolotl in captivity?" dataDxfId="0"/>
     <x:tableColumn id="21" uniqueName="21" name="Axolotls are native to a particular kind of aquatic environment. Which one?" dataDxfId="0"/>
-    <x:tableColumn id="22" uniqueName="22" name="Point – Axolotls are native to a particular kind of aquatic environment. Which one?" dataDxfId="0"/>
-    <x:tableColumn id="23" uniqueName="23" name="Feedback – Axolotls are native to a particular kind of aquatic environment. Which one?" dataDxfId="0"/>
+    <x:tableColumn id="22" uniqueName="22" name="Points - Axolotls are native to a particular kind of aquatic environment. Which one?" dataDxfId="0"/>
+    <x:tableColumn id="23" uniqueName="23" name="Feedback - Axolotls are native to a particular kind of aquatic environment. Which one?" dataDxfId="0"/>
     <x:tableColumn id="24" uniqueName="24" name="At what age are Axolotls typically considered fully grown?" dataDxfId="0"/>
-    <x:tableColumn id="25" uniqueName="25" name="Point – At what age are Axolotls typically considered fully grown?" dataDxfId="0"/>
-    <x:tableColumn id="26" uniqueName="26" name="Feedback – At what age are Axolotls typically considered fully grown?" dataDxfId="0"/>
+    <x:tableColumn id="25" uniqueName="25" name="Points - At what age are Axolotls typically considered fully grown?" dataDxfId="0"/>
+    <x:tableColumn id="26" uniqueName="26" name="Feedback - At what age are Axolotls typically considered fully grown?" dataDxfId="0"/>
     <x:tableColumn id="27" uniqueName="27" name="Through what feature do Axolotls breathe?" dataDxfId="0"/>
-    <x:tableColumn id="28" uniqueName="28" name="Point – Through what feature do Axolotls breathe?" dataDxfId="0"/>
-    <x:tableColumn id="29" uniqueName="29" name="Feedback – Through what feature do Axolotls breathe?" dataDxfId="0"/>
+    <x:tableColumn id="28" uniqueName="28" name="Points - Through what feature do Axolotls breathe?" dataDxfId="0"/>
+    <x:tableColumn id="29" uniqueName="29" name="Feedback - Through what feature do Axolotls breathe?" dataDxfId="0"/>
     <x:tableColumn id="30" uniqueName="30" name="In which lake were the Axolotls first found naturally?" dataDxfId="0"/>
-    <x:tableColumn id="31" uniqueName="31" name="Point – In which lake were the Axolotls first found naturally?" dataDxfId="0"/>
-    <x:tableColumn id="32" uniqueName="32" name="Feedback – In which lake were the Axolotls first found naturally?" dataDxfId="0"/>
+    <x:tableColumn id="31" uniqueName="31" name="Points - In which lake were the Axolotls first found naturally?" dataDxfId="0"/>
+    <x:tableColumn id="32" uniqueName="32" name="Feedback - In which lake were the Axolotls first found naturally?" dataDxfId="0"/>
     <x:tableColumn id="33" uniqueName="33" name="What is the current conservation status of Axolotls?" dataDxfId="0"/>
-    <x:tableColumn id="34" uniqueName="34" name="Feedback – What is the current conservation status of Axolotls?" dataDxfId="0"/>
-    <x:tableColumn id="35" uniqueName="35" name="Point – What is the current conservation status of Axolotls?" dataDxfId="0"/>
+    <x:tableColumn id="34" uniqueName="34" name="Feedback - What is the current conservation status of Axolotls?" dataDxfId="0"/>
+    <x:tableColumn id="35" uniqueName="35" name="Points - What is the current conservation status of Axolotls?" dataDxfId="0"/>
     <x:tableColumn id="36" uniqueName="36" name="Where did the name Axolotl come from?" dataDxfId="0"/>
-    <x:tableColumn id="37" uniqueName="37" name="Feedback – Where did the name Axolotl come from?" dataDxfId="0"/>
-    <x:tableColumn id="38" uniqueName="38" name="Point – Where did the name Axolotl come from?" dataDxfId="0"/>
+    <x:tableColumn id="37" uniqueName="37" name="Feedback - Where did the name Axolotl come from?" dataDxfId="0"/>
+    <x:tableColumn id="38" uniqueName="38" name="Points - Where did the name Axolotl come from?" dataDxfId="0"/>
     <x:tableColumn id="39" uniqueName="39" name="What is the scientific name of the axolotl?" dataDxfId="0"/>
-    <x:tableColumn id="40" uniqueName="40" name="Feedback – What is the scientific name of the axolotl?" dataDxfId="0"/>
-    <x:tableColumn id="41" uniqueName="41" name="Point – What is the scientific name of the axolotl?" dataDxfId="0"/>
+    <x:tableColumn id="40" uniqueName="40" name="Feedback - What is the scientific name of the axolotl?" dataDxfId="0"/>
+    <x:tableColumn id="41" uniqueName="41" name="Points - What is the scientific name of the axolotl?" dataDxfId="0"/>
     <x:tableColumn id="42" uniqueName="42" name="In what year was the axolotl first described scientifically?&#10;" dataDxfId="0"/>
-    <x:tableColumn id="43" uniqueName="43" name="Feedback – In what year was the axolotl first described scientifically?&#10;" dataDxfId="0"/>
-    <x:tableColumn id="44" uniqueName="44" name="Point – In what year was the axolotl first described scientifically?&#10;" dataDxfId="0"/>
+    <x:tableColumn id="43" uniqueName="43" name="Feedback - In what year was the axolotl first described scientifically?&#10;" dataDxfId="0"/>
+    <x:tableColumn id="44" uniqueName="44" name="Points - In what year was the axolotl first described scientifically?&#10;" dataDxfId="0"/>
     <x:tableColumn id="45" uniqueName="45" name="What is a common threat to axolotl populations in their natural habitat?" dataDxfId="0"/>
-    <x:tableColumn id="46" uniqueName="46" name="Feedback – What is a common threat to axolotl populations in their natural habitat?" dataDxfId="0"/>
-    <x:tableColumn id="47" uniqueName="47" name="Point – What is a common threat to axolotl populations in their natural habitat?" dataDxfId="0"/>
+    <x:tableColumn id="46" uniqueName="46" name="Feedback - What is a common threat to axolotl populations in their natural habitat?" dataDxfId="0"/>
+    <x:tableColumn id="47" uniqueName="47" name="Points - What is a common threat to axolotl populations in their natural habitat?" dataDxfId="0"/>
     <x:tableColumn id="48" uniqueName="48" name="What role do axolotls play in regenerative medicine and genetics?" dataDxfId="0"/>
-    <x:tableColumn id="49" uniqueName="49" name="Feedback – What role do axolotls play in regenerative medicine and genetics?" dataDxfId="0"/>
-    <x:tableColumn id="50" uniqueName="50" name="Point – What role do axolotls play in regenerative medicine and genetics?" dataDxfId="0"/>
+    <x:tableColumn id="49" uniqueName="49" name="Feedback - What role do axolotls play in regenerative medicine and genetics?" dataDxfId="0"/>
+    <x:tableColumn id="50" uniqueName="50" name="Points - What role do axolotls play in regenerative medicine and genetics?" dataDxfId="0"/>
     <x:tableColumn id="51" uniqueName="51" name="What is the purpose of the &quot;feathers&quot; placed on the head?" dataDxfId="0"/>
-    <x:tableColumn id="52" uniqueName="52" name="Feedback – What is the purpose of the &quot;feathers&quot; placed on the head?" dataDxfId="0"/>
-    <x:tableColumn id="53" uniqueName="53" name="Point – What is the purpose of the &quot;feathers&quot; placed on the head?" dataDxfId="0"/>
+    <x:tableColumn id="52" uniqueName="52" name="Feedback - What is the purpose of the &quot;feathers&quot; placed on the head?" dataDxfId="0"/>
+    <x:tableColumn id="53" uniqueName="53" name="Points - What is the purpose of the &quot;feathers&quot; placed on the head?" dataDxfId="0"/>
     <x:tableColumn id="54" uniqueName="54" name="Which of the following describes the diet of axolotls?" dataDxfId="0"/>
-    <x:tableColumn id="55" uniqueName="55" name="Feedback – Which of the following describes the diet of axolotls?" dataDxfId="0"/>
-    <x:tableColumn id="56" uniqueName="56" name="Point – Which of the following describes the diet of axolotls?" dataDxfId="0"/>
+    <x:tableColumn id="55" uniqueName="55" name="Feedback - Which of the following describes the diet of axolotls?" dataDxfId="0"/>
+    <x:tableColumn id="56" uniqueName="56" name="Points - Which of the following describes the diet of axolotls?" dataDxfId="0"/>
     <x:tableColumn id="57" uniqueName="57" name="How many axolotls are estimated to live in captivity?" dataDxfId="0"/>
-    <x:tableColumn id="58" uniqueName="58" name="Feedback – How many axolotls are estimated to live in captivity?" dataDxfId="0"/>
-    <x:tableColumn id="59" uniqueName="59" name="Point – How many axolotls are estimated to live in captivity?" dataDxfId="0"/>
+    <x:tableColumn id="58" uniqueName="58" name="Feedback - How many axolotls are estimated to live in captivity?" dataDxfId="0"/>
+    <x:tableColumn id="59" uniqueName="59" name="Points - How many axolotls are estimated to live in captivity?" dataDxfId="0"/>
     <x:tableColumn id="60" uniqueName="60" name="How many axolotls are estimated to live in the wild?" dataDxfId="0"/>
-    <x:tableColumn id="61" uniqueName="61" name="Feedback – How many axolotls are estimated to live in the wild?" dataDxfId="0"/>
-    <x:tableColumn id="62" uniqueName="62" name="Point – How many axolotls are estimated to live in the wild?" dataDxfId="0"/>
+    <x:tableColumn id="61" uniqueName="61" name="Feedback - How many axolotls are estimated to live in the wild?" dataDxfId="0"/>
+    <x:tableColumn id="62" uniqueName="62" name="Points - How many axolotls are estimated to live in the wild?" dataDxfId="0"/>
     <x:tableColumn id="63" uniqueName="63" name="Axolotls are primarily active during which part of the day?" dataDxfId="0"/>
-    <x:tableColumn id="64" uniqueName="64" name="Feedback – Axolotls are primarily active during which part of the day?" dataDxfId="0"/>
-    <x:tableColumn id="65" uniqueName="65" name="Point – Axolotls are primarily active during which part of the day?" dataDxfId="0"/>
+    <x:tableColumn id="64" uniqueName="64" name="Feedback - Axolotls are primarily active during which part of the day?" dataDxfId="0"/>
+    <x:tableColumn id="65" uniqueName="65" name="Points - Axolotls are primarily active during which part of the day?" dataDxfId="0"/>
     <x:tableColumn id="66" uniqueName="66" name="How do axolotls primarily perceive their environment?" dataDxfId="0"/>
-    <x:tableColumn id="67" uniqueName="67" name="Point – How do axolotls primarily perceive their environment?" dataDxfId="0"/>
-    <x:tableColumn id="68" uniqueName="68" name="Feedback – How do axolotls primarily perceive their environment?" dataDxfId="0"/>
+    <x:tableColumn id="67" uniqueName="67" name="Points - How do axolotls primarily perceive their environment?" dataDxfId="0"/>
+    <x:tableColumn id="68" uniqueName="68" name="Feedback - How do axolotls primarily perceive their environment?" dataDxfId="0"/>
     <x:tableColumn id="69" uniqueName="69" name="What is the maximum size an adult axolotl can reach?" dataDxfId="0"/>
-    <x:tableColumn id="70" uniqueName="70" name="Point – What is the maximum size an adult axolotl can reach?" dataDxfId="0"/>
-    <x:tableColumn id="71" uniqueName="71" name="Feedback – What is the maximum size an adult axolotl can reach?" dataDxfId="0"/>
+    <x:tableColumn id="70" uniqueName="70" name="Points - What is the maximum size an adult axolotl can reach?" dataDxfId="0"/>
+    <x:tableColumn id="71" uniqueName="71" name="Feedback - What is the maximum size an adult axolotl can reach?" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -3856,7 +3856,7 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R1c0bf1046e0d405b"/>
+    <x:tablePart r:id="R536df159f5264e15"/>
   </x:tableParts>
 </x:worksheet>
 </file>